--- a/data/statistical/filled_NaN_xlsx/黑龙江省_NaN_filled_polynomial.xlsx
+++ b/data/statistical/filled_NaN_xlsx/黑龙江省_NaN_filled_polynomial.xlsx
@@ -600,7 +600,7 @@
         <v>32.4</v>
       </c>
       <c r="E2">
-        <v>3228.14107054472</v>
+        <v>3228.141071587801</v>
       </c>
       <c r="F2">
         <v>4462.08</v>
@@ -609,85 +609,85 @@
         <v>2.54</v>
       </c>
       <c r="H2">
-        <v>53.65861104431679</v>
+        <v>53.65861104323994</v>
       </c>
       <c r="I2">
-        <v>4.08063983487591</v>
+        <v>4.080639835148759</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-62.79062373004854</v>
       </c>
       <c r="K2">
-        <v>31.97550914378371</v>
+        <v>31.97550914273597</v>
       </c>
       <c r="L2">
-        <v>1.099787741300133</v>
+        <v>1.09978774128831</v>
       </c>
       <c r="M2">
-        <v>102.6794154064846</v>
+        <v>102.6794154058443</v>
       </c>
       <c r="N2">
-        <v>165.2301470618695</v>
+        <v>165.2301470558159</v>
       </c>
       <c r="O2">
-        <v>29.36897059204057</v>
+        <v>29.36897059809417</v>
       </c>
       <c r="P2">
-        <v>1962.593146461616</v>
+        <v>1488.156161614834</v>
       </c>
       <c r="Q2">
-        <v>96.79534294394844</v>
+        <v>97.26550703207452</v>
       </c>
       <c r="R2">
-        <v>16.78233230032492</v>
+        <v>16.78233229077887</v>
       </c>
       <c r="S2">
-        <v>203641.816069451</v>
+        <v>270385.3874286992</v>
       </c>
       <c r="T2">
-        <v>178301.82843256</v>
+        <v>178301.8284435272</v>
       </c>
       <c r="U2">
-        <v>1.184574706245628</v>
+        <v>1.174292179140716</v>
       </c>
       <c r="V2">
-        <v>31.67900929045572</v>
+        <v>31.67900928958261</v>
       </c>
       <c r="W2">
-        <v>29.26232967665419</v>
+        <v>29.26232967129909</v>
       </c>
       <c r="X2">
-        <v>30414.39705872536</v>
+        <v>30414.39705777168</v>
       </c>
       <c r="Y2">
-        <v>48.59539779012373</v>
+        <v>57.79882838546419</v>
       </c>
       <c r="Z2">
-        <v>144468.0901311718</v>
+        <v>95020.56178678107</v>
       </c>
       <c r="AA2">
-        <v>57.91116843917947</v>
+        <v>185.5961539102718</v>
       </c>
       <c r="AB2">
-        <v>201267.5678482685</v>
+        <v>-115610.1837533712</v>
       </c>
       <c r="AC2">
-        <v>185960.8278652886</v>
+        <v>340866.8444004059</v>
       </c>
       <c r="AD2">
-        <v>382.0559441111982</v>
+        <v>-570.3706294056028</v>
       </c>
       <c r="AE2">
-        <v>14138.59225827456</v>
+        <v>5248.452954106033</v>
       </c>
       <c r="AF2">
-        <v>306.0108191504363</v>
+        <v>723.9118707733206</v>
       </c>
       <c r="AG2">
-        <v>11439.85437309742</v>
+        <v>1768.931734886379</v>
       </c>
       <c r="AH2">
-        <v>64992.15915552121</v>
+        <v>7596.351913847846</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -713,13 +713,13 @@
         <v>2.03</v>
       </c>
       <c r="H3">
-        <v>53.64238281908911</v>
+        <v>53.64238281812868</v>
       </c>
       <c r="I3">
         <v>4.2</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>-40.82971511711366</v>
       </c>
       <c r="K3">
         <v>28.8362005225021</v>
@@ -743,13 +743,13 @@
         <v>98.86</v>
       </c>
       <c r="R3">
-        <v>14.18745098006912</v>
+        <v>14.18745097110514</v>
       </c>
       <c r="S3">
         <v>16536.4</v>
       </c>
       <c r="T3">
-        <v>183160.2205886841</v>
+        <v>183160.2205996513</v>
       </c>
       <c r="U3">
         <v>1.27</v>
@@ -764,34 +764,34 @@
         <v>23674</v>
       </c>
       <c r="Y3">
-        <v>54.52910854791583</v>
+        <v>59.84313311902189</v>
       </c>
       <c r="Z3">
-        <v>155422.2050624334</v>
+        <v>136511.4178890717</v>
       </c>
       <c r="AA3">
-        <v>63.90049896304155</v>
+        <v>157.7814685851336</v>
       </c>
       <c r="AB3">
-        <v>215822.9220832569</v>
+        <v>-98891.70368170738</v>
       </c>
       <c r="AC3">
-        <v>201912.0385107078</v>
+        <v>288393.5457897186</v>
       </c>
       <c r="AD3">
-        <v>340.7412587814033</v>
+        <v>-519.216783253476</v>
       </c>
       <c r="AE3">
-        <v>12313.27321121097</v>
+        <v>4745.797448158264</v>
       </c>
       <c r="AF3">
-        <v>211.1298652279793</v>
+        <v>1722.495863053949</v>
       </c>
       <c r="AG3">
-        <v>9697.668708443642</v>
+        <v>1563.368790803994</v>
       </c>
       <c r="AH3">
-        <v>45766.20378296148</v>
+        <v>8185.295156327968</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -817,13 +817,13 @@
         <v>1.82</v>
       </c>
       <c r="H4">
-        <v>53.69353235448943</v>
+        <v>53.69353235361632</v>
       </c>
       <c r="I4">
         <v>4.5</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>-17.8772119670175</v>
       </c>
       <c r="K4">
         <v>25.0494674356923</v>
@@ -847,7 +847,7 @@
         <v>99.09999999999999</v>
       </c>
       <c r="R4">
-        <v>11.99588235339615</v>
+        <v>11.99588234466501</v>
       </c>
       <c r="S4">
         <v>23670</v>
@@ -868,34 +868,34 @@
         <v>26304</v>
       </c>
       <c r="Y4">
-        <v>58.34258367919504</v>
+        <v>62.95577219020334</v>
       </c>
       <c r="Z4">
         <v>156179</v>
       </c>
       <c r="AA4">
-        <v>61.55651895029441</v>
+        <v>132.8284216225147</v>
       </c>
       <c r="AB4">
-        <v>213933.4516270915</v>
+        <v>-82477.32555818558</v>
       </c>
       <c r="AC4">
-        <v>183747.9309820578</v>
+        <v>241179.4521770477</v>
       </c>
       <c r="AD4">
-        <v>312.5534465759993</v>
+        <v>-461.525474563241</v>
       </c>
       <c r="AE4">
-        <v>10613.94821164012</v>
+        <v>4270.226233705878</v>
       </c>
       <c r="AF4">
-        <v>136.2437064422624</v>
+        <v>1003.288812388074</v>
       </c>
       <c r="AG4">
-        <v>8104.103872895241</v>
+        <v>2460.666218689071</v>
       </c>
       <c r="AH4">
-        <v>74063.73957052674</v>
+        <v>15734.7796426997</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -927,7 +927,7 @@
         <v>4.4</v>
       </c>
       <c r="J5">
-        <v>6.066885719075799</v>
+        <v>6.066885721404105</v>
       </c>
       <c r="K5">
         <v>20.7374358416308</v>
@@ -972,34 +972,34 @@
         <v>27278</v>
       </c>
       <c r="Y5">
-        <v>59.50649794714768</v>
+        <v>53.07766610482196</v>
       </c>
       <c r="Z5">
         <v>84661</v>
       </c>
       <c r="AA5">
-        <v>60.32925839583987</v>
+        <v>110.7370130224153</v>
       </c>
       <c r="AB5">
-        <v>158440.2536012297</v>
+        <v>-66367.04938256741</v>
       </c>
       <c r="AC5">
-        <v>198517.902530605</v>
+        <v>199224.5635585785</v>
       </c>
       <c r="AD5">
-        <v>297.4925075024366</v>
+        <v>-397.296703338623</v>
       </c>
       <c r="AE5">
-        <v>9040.617259740829</v>
+        <v>3821.739310733974</v>
       </c>
       <c r="AF5">
-        <v>110.1975732085179</v>
+        <v>702.0349563868228</v>
       </c>
       <c r="AG5">
-        <v>6659.159866571426</v>
+        <v>324.1038471774228</v>
       </c>
       <c r="AH5">
-        <v>83961.6716956803</v>
+        <v>3760.71036773067</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1076,34 +1076,34 @@
         <v>8148</v>
       </c>
       <c r="Y6">
-        <v>56.62972201869631</v>
+        <v>57.66162768326218</v>
       </c>
       <c r="Z6">
         <v>26420</v>
       </c>
       <c r="AA6">
-        <v>60.41625436594956</v>
+        <v>91.5072427848354</v>
       </c>
       <c r="AB6">
-        <v>159741.6694073323</v>
+        <v>-50560.87515544891</v>
       </c>
       <c r="AC6">
-        <v>230437.4563222421</v>
+        <v>162528.8799343109</v>
       </c>
       <c r="AD6">
-        <v>295.5584415644407</v>
+        <v>-326.5304695721716</v>
       </c>
       <c r="AE6">
-        <v>7593.280355423689</v>
+        <v>3400.336679272354</v>
       </c>
       <c r="AF6">
-        <v>193.2846509592671</v>
+        <v>1748.085350616993</v>
       </c>
       <c r="AG6">
-        <v>5362.836689412594</v>
+        <v>2849.193670987036</v>
       </c>
       <c r="AH6">
-        <v>46095.8760465865</v>
+        <v>3512.053835201709</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -1186,28 +1186,28 @@
         <v>93543</v>
       </c>
       <c r="AA7">
-        <v>65.58301873031959</v>
+        <v>75.1391109097749</v>
       </c>
       <c r="AB7">
-        <v>131966.7737557057</v>
+        <v>-35058.80287647247</v>
       </c>
       <c r="AC7">
-        <v>206642.6156661661</v>
+        <v>131092.401309967</v>
       </c>
       <c r="AD7">
-        <v>306.7512487471104</v>
+        <v>-249.2267732676119</v>
       </c>
       <c r="AE7">
-        <v>6271.937498599291</v>
+        <v>3006.018339298666</v>
       </c>
       <c r="AF7">
-        <v>155.268578693885</v>
+        <v>-18.64366433253364</v>
       </c>
       <c r="AG7">
-        <v>4215.134341597557</v>
+        <v>1354.094726711279</v>
       </c>
       <c r="AH7">
-        <v>74312.97288208397</v>
+        <v>5804.883598160131</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1290,28 +1290,28 @@
         <v>120609</v>
       </c>
       <c r="AA8">
-        <v>62.42136713822691</v>
+        <v>61.6326173953712</v>
       </c>
       <c r="AB8">
-        <v>182124.148408343</v>
+        <v>-19860.83254575729</v>
       </c>
       <c r="AC8">
-        <v>225761.5172600779</v>
+        <v>104915.1276836395</v>
       </c>
       <c r="AD8">
-        <v>331.0709290578961</v>
+        <v>-165.3856144268066</v>
       </c>
       <c r="AE8">
-        <v>5076.588689446449</v>
+        <v>2638.78429081291</v>
       </c>
       <c r="AF8">
-        <v>228.4833885700009</v>
+        <v>1100.183405217821</v>
       </c>
       <c r="AG8">
-        <v>3216.052822828293</v>
+        <v>2564.253087719704</v>
       </c>
       <c r="AH8">
-        <v>84298.59603085744</v>
+        <v>11012.02427534927</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1394,28 +1394,28 @@
         <v>213124</v>
       </c>
       <c r="AA9">
-        <v>52.04081135952207</v>
+        <v>50.98776224534959</v>
       </c>
       <c r="AB9">
-        <v>136781.5725233891</v>
+        <v>-4966.964163184166</v>
       </c>
       <c r="AC9">
-        <v>189876.6253546128</v>
+        <v>83997.05904769897</v>
       </c>
       <c r="AD9">
-        <v>368.517482496798</v>
+        <v>-75.0069930460304</v>
       </c>
       <c r="AE9">
-        <v>4007.233927845955</v>
+        <v>2298.634533829987</v>
       </c>
       <c r="AF9">
-        <v>231.0370072913189</v>
+        <v>1662.067560669867</v>
       </c>
       <c r="AG9">
-        <v>2365.592133283615</v>
+        <v>1181.991980028419</v>
       </c>
       <c r="AH9">
-        <v>63498.60285453316</v>
+        <v>10705.30110119951</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1498,28 +1498,28 @@
         <v>233777</v>
       </c>
       <c r="AA10">
-        <v>48.8816624852608</v>
+        <v>43.20454545784742</v>
       </c>
       <c r="AB10">
-        <v>191355.553430461</v>
+        <v>9622.80227124691</v>
       </c>
       <c r="AC10">
-        <v>238320.4509168425</v>
+        <v>68338.19541168213</v>
       </c>
       <c r="AD10">
-        <v>419.0909090675414</v>
+        <v>21.90909087099135</v>
       </c>
       <c r="AE10">
-        <v>3063.873213768005</v>
+        <v>1985.569068334997</v>
       </c>
       <c r="AF10">
-        <v>263.6229182411662</v>
+        <v>-29.6865886224223</v>
       </c>
       <c r="AG10">
-        <v>1663.752273082733</v>
+        <v>198.4616294182646</v>
       </c>
       <c r="AH10">
-        <v>64850.51228433114</v>
+        <v>18023.67797108212</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1602,28 +1602,28 @@
         <v>123763</v>
       </c>
       <c r="AA11">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AB11">
-        <v>172954</v>
+        <v>27341</v>
       </c>
       <c r="AC11">
-        <v>176281</v>
+        <v>44119</v>
       </c>
       <c r="AD11">
-        <v>494</v>
+        <v>150</v>
       </c>
       <c r="AE11">
-        <v>2246.50654733181</v>
+        <v>1699.58789436519</v>
       </c>
       <c r="AF11">
-        <v>237.5055509310554</v>
+        <v>121</v>
       </c>
       <c r="AG11">
-        <v>727</v>
+        <v>975</v>
       </c>
       <c r="AH11">
-        <v>94548</v>
+        <v>4141</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1706,28 +1706,28 @@
         <v>162299</v>
       </c>
       <c r="AA12">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="AB12">
-        <v>180450</v>
+        <v>52044</v>
       </c>
       <c r="AC12">
-        <v>202903</v>
+        <v>66714</v>
       </c>
       <c r="AD12">
-        <v>608</v>
+        <v>250</v>
       </c>
       <c r="AE12">
-        <v>1555.133928418159</v>
+        <v>1440.69101186842</v>
       </c>
       <c r="AF12">
-        <v>300.216205130524</v>
+        <v>122</v>
       </c>
       <c r="AG12">
-        <v>276</v>
+        <v>4255</v>
       </c>
       <c r="AH12">
-        <v>89157</v>
+        <v>8820</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1810,28 +1810,28 @@
         <v>124122</v>
       </c>
       <c r="AA13">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="AB13">
-        <v>210882</v>
+        <v>58480</v>
       </c>
       <c r="AC13">
-        <v>216672</v>
+        <v>76544</v>
       </c>
       <c r="AD13">
-        <v>593</v>
+        <v>277</v>
       </c>
       <c r="AE13">
-        <v>989.7553571462631</v>
+        <v>1277</v>
       </c>
       <c r="AF13">
-        <v>130</v>
+        <v>2932</v>
       </c>
       <c r="AG13">
-        <v>765</v>
+        <v>1024</v>
       </c>
       <c r="AH13">
-        <v>87268</v>
+        <v>12177</v>
       </c>
     </row>
     <row r="14" spans="1:34">
@@ -1914,28 +1914,28 @@
         <v>101079</v>
       </c>
       <c r="AA14">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="AB14">
-        <v>228277</v>
+        <v>47826</v>
       </c>
       <c r="AC14">
-        <v>238819</v>
+        <v>54949</v>
       </c>
       <c r="AD14">
-        <v>626</v>
+        <v>485</v>
       </c>
       <c r="AE14">
-        <v>365</v>
+        <v>1004.15012132376</v>
       </c>
       <c r="AF14">
-        <v>14</v>
+        <v>891</v>
       </c>
       <c r="AG14">
-        <v>1391</v>
+        <v>917</v>
       </c>
       <c r="AH14">
-        <v>66086</v>
+        <v>25427</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2018,28 +2018,28 @@
         <v>134972</v>
       </c>
       <c r="AA15">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="AB15">
-        <v>201936</v>
+        <v>42822</v>
       </c>
       <c r="AC15">
-        <v>208285</v>
+        <v>53317</v>
       </c>
       <c r="AD15">
-        <v>922</v>
+        <v>585</v>
       </c>
       <c r="AE15">
-        <v>335</v>
+        <v>600</v>
       </c>
       <c r="AF15">
-        <v>161</v>
+        <v>764</v>
       </c>
       <c r="AG15">
-        <v>386</v>
+        <v>451</v>
       </c>
       <c r="AH15">
-        <v>31018</v>
+        <v>11446</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -2122,28 +2122,28 @@
         <v>92999</v>
       </c>
       <c r="AA16">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="AB16">
-        <v>243612</v>
+        <v>83719</v>
       </c>
       <c r="AC16">
-        <v>241827</v>
+        <v>59158</v>
       </c>
       <c r="AD16">
-        <v>1117</v>
+        <v>813</v>
       </c>
       <c r="AE16">
-        <v>240</v>
+        <v>675.9463967531919</v>
       </c>
       <c r="AF16">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="AG16">
-        <v>683</v>
+        <v>70</v>
       </c>
       <c r="AH16">
-        <v>46267</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="17" spans="1:34">
@@ -2178,10 +2178,10 @@
         <v>395.0571</v>
       </c>
       <c r="K17">
-        <v>12.31426931463648</v>
+        <v>12.31426931614988</v>
       </c>
       <c r="L17">
-        <v>0.7281998127882616</v>
+        <v>0.7281998127982661</v>
       </c>
       <c r="M17">
         <v>11.554277666263</v>
@@ -2226,28 +2226,28 @@
         <v>97591</v>
       </c>
       <c r="AA17">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="AB17">
-        <v>190222</v>
+        <v>112246.3</v>
       </c>
       <c r="AC17">
-        <v>197721.1</v>
+        <v>96722</v>
       </c>
       <c r="AD17">
-        <v>1351</v>
+        <v>882</v>
       </c>
       <c r="AE17">
-        <v>52</v>
+        <v>552.470971681178</v>
       </c>
       <c r="AF17">
-        <v>30</v>
+        <v>544.401958285308</v>
       </c>
       <c r="AG17">
-        <v>1143</v>
+        <v>2186</v>
       </c>
       <c r="AH17">
-        <v>71275</v>
+        <v>22566</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2282,10 +2282,10 @@
         <v>457.3</v>
       </c>
       <c r="K18">
-        <v>13.95807595015503</v>
+        <v>13.95807595178485</v>
       </c>
       <c r="L18">
-        <v>0.7263470169546054</v>
+        <v>0.7263470169673383</v>
       </c>
       <c r="M18">
         <v>8.92802790921681</v>
@@ -2312,13 +2312,13 @@
         <v>49875</v>
       </c>
       <c r="U18">
-        <v>1.432331193097647</v>
+        <v>1.109641541549609</v>
       </c>
       <c r="V18">
         <v>91</v>
       </c>
       <c r="W18">
-        <v>99.91261537978426</v>
+        <v>99.91261538653634</v>
       </c>
       <c r="X18">
         <v>11306</v>
@@ -2330,28 +2330,28 @@
         <v>96639</v>
       </c>
       <c r="AA18">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="AB18">
-        <v>59785.7</v>
+        <v>135177.9</v>
       </c>
       <c r="AC18">
-        <v>82324</v>
+        <v>165004.9</v>
       </c>
       <c r="AD18">
-        <v>922</v>
+        <v>1012</v>
       </c>
       <c r="AE18">
-        <v>151.7</v>
+        <v>1076</v>
       </c>
       <c r="AF18">
-        <v>198.1836967511637</v>
+        <v>926.867038576607</v>
       </c>
       <c r="AG18">
-        <v>1493</v>
+        <v>1544</v>
       </c>
       <c r="AH18">
-        <v>5808.8</v>
+        <v>16296.3</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2368,7 +2368,7 @@
         <v>49.6</v>
       </c>
       <c r="E19">
-        <v>21010.71607214212</v>
+        <v>21010.71607102454</v>
       </c>
       <c r="F19">
         <v>22164.9114</v>
@@ -2386,10 +2386,10 @@
         <v>414.7</v>
       </c>
       <c r="K19">
-        <v>15.97120208048727</v>
+        <v>15.97120208234992</v>
       </c>
       <c r="L19">
-        <v>0.7273591877137733</v>
+        <v>0.7273591877274157</v>
       </c>
       <c r="M19">
         <v>9.911273900510411</v>
@@ -2416,13 +2416,13 @@
         <v>900</v>
       </c>
       <c r="U19">
-        <v>1.441308901343038</v>
+        <v>1.476652243826939</v>
       </c>
       <c r="V19">
         <v>92.8</v>
       </c>
       <c r="W19">
-        <v>111.676060434198</v>
+        <v>111.6760604418814</v>
       </c>
       <c r="X19">
         <v>16188</v>
@@ -2434,28 +2434,28 @@
         <v>118264</v>
       </c>
       <c r="AA19">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="AB19">
-        <v>100785.7</v>
+        <v>133299</v>
       </c>
       <c r="AC19">
-        <v>182127.5</v>
+        <v>160767.5</v>
       </c>
       <c r="AD19">
-        <v>1482</v>
+        <v>1138</v>
       </c>
       <c r="AE19">
-        <v>82</v>
+        <v>17.2</v>
       </c>
       <c r="AF19">
-        <v>56.88852052769766</v>
+        <v>30</v>
       </c>
       <c r="AG19">
-        <v>950.3</v>
+        <v>2230.3</v>
       </c>
       <c r="AH19">
-        <v>64809.3</v>
+        <v>9790.5</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2472,7 +2472,7 @@
         <v>49.426</v>
       </c>
       <c r="E20">
-        <v>22594.67321507633</v>
+        <v>22594.67321380973</v>
       </c>
       <c r="F20">
         <v>20397.3358</v>
@@ -2490,10 +2490,10 @@
         <v>477.4255</v>
       </c>
       <c r="K20">
-        <v>18.35364770540036</v>
+        <v>18.35364770737942</v>
       </c>
       <c r="L20">
-        <v>0.7312363250639464</v>
+        <v>0.7312363250794078</v>
       </c>
       <c r="M20">
         <v>10.4535533087564</v>
@@ -2520,13 +2520,13 @@
         <v>2918</v>
       </c>
       <c r="U20">
-        <v>1.411686931609664</v>
+        <v>0.896917827326761</v>
       </c>
       <c r="V20">
         <v>96</v>
       </c>
       <c r="W20">
-        <v>124.3039528063964</v>
+        <v>124.3039528147783</v>
       </c>
       <c r="X20">
         <v>26744</v>
@@ -2538,28 +2538,28 @@
         <v>121280</v>
       </c>
       <c r="AA20">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="AB20">
-        <v>104527</v>
+        <v>161270</v>
       </c>
       <c r="AC20">
-        <v>222182</v>
+        <v>197834</v>
       </c>
       <c r="AD20">
-        <v>1629</v>
+        <v>1365</v>
       </c>
       <c r="AE20">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="AF20">
-        <v>88</v>
+        <v>137.953529597816</v>
       </c>
       <c r="AG20">
-        <v>1266</v>
+        <v>1373</v>
       </c>
       <c r="AH20">
-        <v>91359</v>
+        <v>7736</v>
       </c>
     </row>
     <row r="21" spans="1:34">
@@ -2576,7 +2576,7 @@
         <v>49.1869</v>
       </c>
       <c r="E21">
-        <v>24238.39961569011</v>
+        <v>24238.3996143043</v>
       </c>
       <c r="F21">
         <v>24422.1</v>
@@ -2594,25 +2594,25 @@
         <v>503.2422</v>
       </c>
       <c r="K21">
-        <v>21.10541282501072</v>
+        <v>21.10541282710619</v>
       </c>
       <c r="L21">
-        <v>0.7379784290069438</v>
+        <v>0.7379784290242242</v>
       </c>
       <c r="M21">
         <v>7.41431489214131</v>
       </c>
       <c r="N21">
-        <v>131.5615196023136</v>
+        <v>131.5615196079016</v>
       </c>
       <c r="O21">
-        <v>109.7385784192011</v>
+        <v>109.7385784098879</v>
       </c>
       <c r="P21">
         <v>2067.5</v>
       </c>
       <c r="Q21">
-        <v>93.59183500847581</v>
+        <v>100.6557138050985</v>
       </c>
       <c r="R21">
         <v>36.9</v>
@@ -2621,49 +2621,49 @@
         <v>218049</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>-22225.73530817032</v>
       </c>
       <c r="U21">
-        <v>1.301747369417003</v>
+        <v>0.9649032569176008</v>
       </c>
       <c r="V21">
         <v>96.8</v>
       </c>
       <c r="W21">
-        <v>137.7962924954481</v>
+        <v>137.796292505227</v>
       </c>
       <c r="X21">
-        <v>26699.29901719093</v>
+        <v>26699.29901778698</v>
       </c>
       <c r="Y21">
-        <v>58.779940723178</v>
+        <v>45.69831406681421</v>
       </c>
       <c r="Z21">
         <v>95686</v>
       </c>
       <c r="AA21">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="AB21">
-        <v>185957</v>
+        <v>146805</v>
       </c>
       <c r="AC21">
-        <v>261540</v>
+        <v>265646</v>
       </c>
       <c r="AD21">
-        <v>2102</v>
+        <v>1610</v>
       </c>
       <c r="AE21">
-        <v>1370</v>
+        <v>544</v>
       </c>
       <c r="AF21">
-        <v>81.99063423068274</v>
+        <v>1365.52104759911</v>
       </c>
       <c r="AG21">
-        <v>5211</v>
+        <v>2711</v>
       </c>
       <c r="AH21">
-        <v>72417</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -2680,7 +2680,7 @@
         <v>48.0614</v>
       </c>
       <c r="E22">
-        <v>25941.89527402818</v>
+        <v>25941.89527247846</v>
       </c>
       <c r="F22">
         <v>24011.0481</v>
@@ -2692,82 +2692,82 @@
         <v>66.20999999999999</v>
       </c>
       <c r="I22">
-        <v>3.172569659589499</v>
+        <v>3.172569659272995</v>
       </c>
       <c r="J22">
-        <v>564.8305107105989</v>
+        <v>564.8305107085034</v>
       </c>
       <c r="K22">
-        <v>24.22649743908551</v>
+        <v>24.22649744176306</v>
       </c>
       <c r="L22">
-        <v>0.7475854995427653</v>
+        <v>0.7475854995600457</v>
       </c>
       <c r="M22">
-        <v>0.8991059486870654</v>
+        <v>0.8991059503750876</v>
       </c>
       <c r="N22">
-        <v>135.6776444728021</v>
+        <v>135.67764447839</v>
       </c>
       <c r="O22">
-        <v>128.0453637624159</v>
+        <v>128.0453637531027</v>
       </c>
       <c r="P22">
-        <v>1850.428554477382</v>
+        <v>2114.557767123973</v>
       </c>
       <c r="Q22">
-        <v>95.19474814119013</v>
+        <v>106.5484468208236</v>
       </c>
       <c r="R22">
-        <v>41.51411763916258</v>
+        <v>41.51411765313242</v>
       </c>
       <c r="S22">
         <v>213877</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>-49904.78923225403</v>
       </c>
       <c r="U22">
-        <v>1.245256349700913</v>
+        <v>1.21300411589942</v>
       </c>
       <c r="V22">
-        <v>106.8351496413961</v>
+        <v>106.8351496413088</v>
       </c>
       <c r="W22">
-        <v>152.1530795020517</v>
+        <v>152.1530795134604</v>
       </c>
       <c r="X22">
-        <v>31129.36867618561</v>
+        <v>31129.36867666245</v>
       </c>
       <c r="Y22">
-        <v>52.00431122460257</v>
+        <v>50.07101788197429</v>
       </c>
       <c r="Z22">
-        <v>159409.8093732332</v>
+        <v>106660.8774861158</v>
       </c>
       <c r="AA22">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="AB22">
-        <v>183195.7</v>
+        <v>141752.1</v>
       </c>
       <c r="AC22">
-        <v>246084.9</v>
+        <v>272242.2</v>
       </c>
       <c r="AD22">
-        <v>1906</v>
+        <v>1635</v>
       </c>
       <c r="AE22">
-        <v>1571.080356627703</v>
+        <v>341.358218714595</v>
       </c>
       <c r="AF22">
-        <v>72.15289443379427</v>
+        <v>1332.35836195347</v>
       </c>
       <c r="AG22">
-        <v>5028.2</v>
+        <v>620</v>
       </c>
       <c r="AH22">
-        <v>51609.7</v>
+        <v>10026.9</v>
       </c>
     </row>
     <row r="23" spans="1:34">
@@ -2778,100 +2778,100 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>51161.80302260816</v>
+        <v>51161.80302228779</v>
       </c>
       <c r="D23">
-        <v>55.6143290233158</v>
+        <v>55.61432902270462</v>
       </c>
       <c r="E23">
-        <v>27705.16019003093</v>
+        <v>27705.160188362</v>
       </c>
       <c r="F23">
-        <v>26170.27870859951</v>
+        <v>26170.27870839089</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>-6.363969924525009</v>
       </c>
       <c r="H23">
-        <v>67.46714803826762</v>
+        <v>67.46714803902432</v>
       </c>
       <c r="I23">
-        <v>2.971252838146029</v>
+        <v>2.971252837800421</v>
       </c>
       <c r="J23">
-        <v>606.6233100797981</v>
+        <v>606.6233100774698</v>
       </c>
       <c r="K23">
-        <v>27.71690154809039</v>
+        <v>27.71690155088436</v>
       </c>
       <c r="L23">
-        <v>0.7600575366695921</v>
+        <v>0.760057536687782</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-1.544402513070963</v>
       </c>
       <c r="N23">
-        <v>140.3825851322617</v>
+        <v>140.382585138781</v>
       </c>
       <c r="O23">
-        <v>147.7598297046497</v>
+        <v>147.7598296934739</v>
       </c>
       <c r="P23">
-        <v>2232.82781051556</v>
+        <v>2246.871434272705</v>
       </c>
       <c r="Q23">
-        <v>102.2117513076135</v>
+        <v>102.8241277063835</v>
       </c>
       <c r="R23">
-        <v>46.98549018648919</v>
+        <v>46.9854902025545</v>
       </c>
       <c r="S23">
-        <v>193141.5484550226</v>
+        <v>-216137.8124763352</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>-79296.34031772614</v>
       </c>
       <c r="U23">
-        <v>0.9457646365096724</v>
+        <v>1.33308410740358</v>
       </c>
       <c r="V23">
-        <v>111.0812383934681</v>
+        <v>111.0812383932353</v>
       </c>
       <c r="W23">
-        <v>167.3743138259742</v>
+        <v>167.3743138385471</v>
       </c>
       <c r="X23">
-        <v>36021.99844837189</v>
+        <v>36021.99844908714</v>
       </c>
       <c r="Y23">
-        <v>54.1955826843645</v>
+        <v>48.1663210502477</v>
       </c>
       <c r="Z23">
-        <v>149914.4418560908</v>
+        <v>116231.0384249197</v>
       </c>
       <c r="AA23">
-        <v>53.38836636761445</v>
+        <v>202.4318182086572</v>
       </c>
       <c r="AB23">
-        <v>177910.5668460253</v>
+        <v>171616.4886336327</v>
       </c>
       <c r="AC23">
-        <v>169360.0032080418</v>
+        <v>343360.6228141785</v>
       </c>
       <c r="AD23">
-        <v>2271.090909171849</v>
+        <v>1876.727272789925</v>
       </c>
       <c r="AE23">
-        <v>2265.642261087894</v>
+        <v>380.3885427564383</v>
       </c>
       <c r="AF23">
-        <v>207.8189406311949</v>
+        <v>-57.31236893030763</v>
       </c>
       <c r="AG23">
-        <v>6064.329546034336</v>
+        <v>312.593036220613</v>
       </c>
       <c r="AH23">
-        <v>60302.77744787034</v>
+        <v>18242.35898608043</v>
       </c>
     </row>
   </sheetData>
